--- a/GOD LIFE.xlsx
+++ b/GOD LIFE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joohee.choi\Desktop\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovej\Desktop\Github\DATA_STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2670BCDD-555A-474E-ADF2-7CCDEBA9E077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223B7936-7A8C-4FDF-B4BD-1F115A9B6644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B83D6770-C9F8-4A89-BB5B-5424D40CE9CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B83D6770-C9F8-4A89-BB5B-5424D40CE9CC}"/>
   </bookViews>
   <sheets>
     <sheet name="TIMETABLE" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
   <si>
     <t>10시</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
   </si>
   <si>
     <t>Pytorch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -266,40 +262,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EURON 활동하면서 시키는 대로 commit push 몇번 하면서도 무얼 하는지, 왜 하는지에 대한 이해가 전혀 없었다. 이제 이해할 수 있겠다. 버전 관리를 편리하게 하기 위해 불편하고 어려운 git을 공부해야한다라…..ㅎㅎㅎ 익숙해져보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GIT (완료)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C1 / C2  (5시간 소요)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ C2 / C3 / C4 / C5 / C6</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -374,31 +341,6 @@
   </si>
   <si>
     <t>머신러닝을 위한 파이썬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C1 / C2 / C3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ C4 / C5 </t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -438,10 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>q1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이콘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,15 +400,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>저녁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>발레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C1 / C2 / C3 / C4 / C5 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C1 / C2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / C3 / C4 / C5 / C6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백재희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eve 학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C1 / C2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ C3 / C4 / C5 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 따릉이 대여량 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDA 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dacon.io/competitions/open/235576/talkboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bike share 보고 다시 돌아올 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EURON 복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복습과제 lasso 전까지 완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 분석 관련 직무에서 가장 기본적으로 요구하는 데이터베이스 관리 언어인 SQL의 기초를 배울 수 있어서 유익했다. 나름 복잡한 데이터마트를 생성하고, 엑셀로 끌고와 시각화도 간단하게 해보았지만, 실무에서 SQL을 사용하려면 심도깊은 공부가 필요할 것으로 생각된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EURON 활동하면서 시키는 대로 commit push 몇번 하면서도 무얼 하는지, 왜 하는지에 대한 이해가 전혀 없었다. 이제 이해할 수 있겠다. 버전 관리를 편리하게 하기 위해 불편하고 어려운 git을 공부해야한다라…..ㅎㅎㅎ 익숙해져보자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +521,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +638,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -670,7 +722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1037,6 +1089,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF6699"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF6699"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF6699"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1046,7 +1163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1104,106 +1221,175 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1212,185 +1398,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1718,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775C6613-6F12-4ACE-AB75-B9376FC50C4A}">
-  <dimension ref="B1:T22"/>
+  <dimension ref="B1:U22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1732,586 +1882,585 @@
     <col min="12" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-    </row>
-    <row r="2" spans="2:20" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-    </row>
-    <row r="3" spans="2:20" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="41" t="s">
+    <row r="1" spans="2:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="2:21" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="2:21" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="78" t="s">
+      <c r="F3" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="U3" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="112" t="s">
+    </row>
+    <row r="4" spans="2:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="56"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="106"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="5"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D6" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-    </row>
-    <row r="4" spans="2:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="45"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="114"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-    </row>
-    <row r="5" spans="2:20" s="101" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="99"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-    </row>
-    <row r="6" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="98" t="s">
+      <c r="E6" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="G6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="98" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="83" t="s">
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B7" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85" t="s">
+      <c r="M7" s="69"/>
+      <c r="N7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="O7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="P7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="Q7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="R7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="85" t="s">
+      <c r="S7" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="86" t="s">
+      <c r="T7" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="87" t="s">
+    </row>
+    <row r="8" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="88"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="116"/>
       <c r="L8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-    </row>
-    <row r="9" spans="2:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="87" t="s">
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+    </row>
+    <row r="9" spans="2:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="89" t="s">
-        <v>34</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="108"/>
       <c r="L9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="24" t="s">
-        <v>30</v>
+      <c r="N9" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="2:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="87" t="s">
+    <row r="10" spans="2:21" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="90"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="109"/>
       <c r="L10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="26"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="61"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="2:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="91" t="s">
+    <row r="11" spans="2:21" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="90"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="109"/>
       <c r="L11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="44"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="91" t="s">
+      <c r="T11" s="60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107"/>
+      <c r="D12" s="40" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="107"/>
-      <c r="G12" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="107"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="90"/>
+      <c r="G12" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="118"/>
+      <c r="I12" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="109"/>
       <c r="L12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="27" t="s">
+      <c r="N12" s="63"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="25"/>
-    </row>
-    <row r="13" spans="2:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="87" t="s">
+      <c r="T12" s="65"/>
+    </row>
+    <row r="13" spans="2:21" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="90"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="109"/>
       <c r="L13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="25"/>
-    </row>
-    <row r="14" spans="2:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="87" t="s">
+      <c r="N13" s="63"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="65"/>
+    </row>
+    <row r="14" spans="2:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="90"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="109"/>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="37"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="44"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="25"/>
-    </row>
-    <row r="15" spans="2:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="87" t="s">
+      <c r="T14" s="65"/>
+    </row>
+    <row r="15" spans="2:21" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="111"/>
+      <c r="D15" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="110"/>
       <c r="L15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="28" t="s">
+      <c r="N15" s="63"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="T15" s="25"/>
-    </row>
-    <row r="16" spans="2:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="87" t="s">
+      <c r="T15" s="65"/>
+    </row>
+    <row r="16" spans="2:21" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="111"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="110"/>
       <c r="L16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="25"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="65"/>
     </row>
     <row r="17" spans="2:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="90"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="109"/>
       <c r="L17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="35"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="37"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="44"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="25"/>
+      <c r="T17" s="65"/>
     </row>
     <row r="18" spans="2:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="90"/>
+      <c r="D18" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="109"/>
       <c r="L18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="47"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="25"/>
+      <c r="T18" s="65"/>
     </row>
     <row r="19" spans="2:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="90"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="109"/>
       <c r="L19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="29" t="s">
+      <c r="N19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="30" t="s">
+      <c r="O19" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="31" t="s">
+      <c r="Q19" s="32" t="s">
         <v>25</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="26"/>
+      <c r="T19" s="61"/>
     </row>
     <row r="20" spans="2:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="90"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="109"/>
       <c r="L20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="32"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="2:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="95"/>
+      <c r="C21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="111"/>
       <c r="L21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2324,36 +2473,28 @@
     <row r="22" spans="2:20" ht="19.8" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G16:G18"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J9:J21"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="T11:T19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="R7:R8"/>
     <mergeCell ref="S7:S8"/>
     <mergeCell ref="N19:N20"/>
@@ -2361,21 +2502,29 @@
     <mergeCell ref="P19:P20"/>
     <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="N9:R18"/>
-    <mergeCell ref="T11:T19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2384,478 +2533,736 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA25527-4EBA-4CA6-852B-3DCE482FE81A}">
-  <dimension ref="A3:P24"/>
+  <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.69921875" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="11" max="13" width="17.8984375" customWidth="1"/>
-    <col min="14" max="16" width="27.3984375" customWidth="1"/>
+    <col min="13" max="14" width="17.8984375" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="18" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K2" s="100">
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="93"/>
+      <c r="M3" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+    </row>
+    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B7" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="97">
+        <v>1</v>
+      </c>
+      <c r="L7" s="97"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B10" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="121">
+        <v>1</v>
+      </c>
+      <c r="L10" s="121"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="124"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B13" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B16" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B19" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-    </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B7" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B10" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B13" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B16" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="60" t="s">
+      <c r="D19" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="97">
+        <v>1</v>
+      </c>
+      <c r="L19" s="97"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B22" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="57" t="s">
+      <c r="C22" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="97">
+        <v>1</v>
+      </c>
+      <c r="L22" s="97">
+        <v>1</v>
+      </c>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+    </row>
+    <row r="24" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B25" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B19" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B22" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-    </row>
-    <row r="24" spans="2:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
+      <c r="C25" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="97">
+        <v>1</v>
+      </c>
+      <c r="L25" s="97"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="125"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="125"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="125"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="125"/>
+      <c r="R31" s="125"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="125"/>
+      <c r="R32" s="125"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="125"/>
+      <c r="Q33" s="125"/>
+      <c r="R33" s="125"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:J24"/>
-    <mergeCell ref="K22:M24"/>
-    <mergeCell ref="N22:P24"/>
-    <mergeCell ref="N16:P18"/>
-    <mergeCell ref="N19:P21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D16:J18"/>
-    <mergeCell ref="D19:J21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N4:P6"/>
-    <mergeCell ref="N7:P9"/>
-    <mergeCell ref="N10:P12"/>
-    <mergeCell ref="N13:P15"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D7:J9"/>
-    <mergeCell ref="D10:J12"/>
-    <mergeCell ref="K16:M18"/>
-    <mergeCell ref="K19:M21"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K7:M9"/>
-    <mergeCell ref="K10:M12"/>
-    <mergeCell ref="K13:M15"/>
+  <mergeCells count="74">
+    <mergeCell ref="M31:O33"/>
+    <mergeCell ref="P31:R33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:J33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="M25:O27"/>
+    <mergeCell ref="P25:R27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="M28:O30"/>
+    <mergeCell ref="P28:R30"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:J27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D4:J6"/>
     <mergeCell ref="B13:B15"/>
@@ -2869,6 +3276,35 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="P7:R9"/>
+    <mergeCell ref="P10:R12"/>
+    <mergeCell ref="P13:R15"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D7:J9"/>
+    <mergeCell ref="D10:J12"/>
+    <mergeCell ref="M16:O18"/>
+    <mergeCell ref="M19:O21"/>
+    <mergeCell ref="M4:O6"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M7:O9"/>
+    <mergeCell ref="M10:O12"/>
+    <mergeCell ref="M13:O15"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:J24"/>
+    <mergeCell ref="M22:O24"/>
+    <mergeCell ref="P22:R24"/>
+    <mergeCell ref="P16:R18"/>
+    <mergeCell ref="P19:R21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D16:J18"/>
+    <mergeCell ref="D19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L22:L24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2880,7 +3316,7 @@
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2896,39 +3332,39 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="18"/>
     </row>
@@ -2937,38 +3373,54 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
+      <c r="C5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
@@ -2976,9 +3428,9 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
@@ -2986,9 +3438,9 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -2996,9 +3448,9 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -3006,9 +3458,9 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -3016,9 +3468,9 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -3026,9 +3478,9 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -3036,9 +3488,9 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -3046,9 +3498,9 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -3056,9 +3508,9 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
@@ -3066,9 +3518,9 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
@@ -3076,9 +3528,9 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -3086,9 +3538,9 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -3096,9 +3548,9 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -3106,14 +3558,15 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{0EA34ABF-B3B9-4BB2-BC3F-1EE5F7C3D01B}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{029A0109-10EC-427F-9272-4E1B2641093A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3132,24 +3585,24 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B1" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="9"/>
       <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="63" t="s">
-        <v>35</v>
+      <c r="B3" s="85" t="s">
+        <v>34</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3163,11 +3616,11 @@
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="64"/>
+      <c r="B4" s="86"/>
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="65"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -3180,7 +3633,7 @@
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="88" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="11"/>
@@ -3195,11 +3648,11 @@
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B7" s="66"/>
+      <c r="B7" s="88"/>
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="66"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -3212,7 +3665,7 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="11"/>
@@ -3227,11 +3680,11 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B10" s="67"/>
+      <c r="B10" s="89"/>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B11" s="67"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -3244,7 +3697,7 @@
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="90" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="11"/>
@@ -3259,11 +3712,11 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="68"/>
+      <c r="B13" s="90"/>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="68"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -3276,17 +3729,17 @@
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="91" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -3295,14 +3748,14 @@
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="69"/>
+      <c r="B16" s="91"/>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="69"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -3315,17 +3768,17 @@
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="83" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="62"/>
+      <c r="B19" s="84"/>
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="62"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>

--- a/GOD LIFE.xlsx
+++ b/GOD LIFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovej\Desktop\Github\DATA_STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838D59C1-DDA8-4218-AB5E-0524D2AFF439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF22FBF6-D372-4D31-9023-9FF1E842D815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B83D6770-C9F8-4A89-BB5B-5424D40CE9CC}"/>
   </bookViews>
@@ -4515,7 +4515,7 @@
   <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4599,7 +4599,9 @@
       <c r="E4" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6">
         <v>1</v>
@@ -4663,7 +4665,9 @@
       <c r="E7" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6">
         <v>1</v>
